--- a/Greenhouse light and electron microscopy/CGR3 light microscopy and TEM measurements.xlsx
+++ b/Greenhouse light and electron microscopy/CGR3 light microscopy and TEM measurements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\CGR3 manuscript\Data files for github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloch\Documents\GitHub\CGR3-tobacco-2024\Greenhouse light and electron microscopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Genotype</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>WT</t>
-  </si>
-  <si>
-    <t>36625-8</t>
-  </si>
-  <si>
-    <t>36625-10</t>
-  </si>
-  <si>
-    <t>36625-14</t>
   </si>
   <si>
     <t>**data on right averaged by biological replicate</t>
@@ -410,35 +401,35 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -469,13 +460,13 @@
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>1</v>
@@ -507,7 +498,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -587,7 +578,7 @@
         <v>175.86809578905445</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -668,7 +659,7 @@
         <v>171.67972434625892</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -748,7 +739,7 @@
         <v>200.09952196789757</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -828,7 +819,7 @@
         <v>173.40080953435753</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -908,7 +899,7 @@
         <v>147.62246494559679</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -988,7 +979,7 @@
         <v>150.76330689375655</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1059,7 @@
         <v>170.32788020183963</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1139,7 @@
         <v>151.71479394700552</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1219,7 @@
         <v>154.05621909413392</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1299,7 @@
         <v>178.48347216015995</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1379,7 @@
         <v>157.54480758022518</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1468,9 +1459,9 @@
         <v>169.23014898864369</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1548,9 +1539,9 @@
         <v>164.80423461356577</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1628,9 +1619,9 @@
         <v>145.9609315868851</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1708,9 +1699,9 @@
         <v>180.94053639628621</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1788,9 +1779,9 @@
         <v>173.31657316889797</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1826,9 +1817,9 @@
         <v>140.84798667695816</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1864,9 +1855,9 @@
         <v>156.02769952033705</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1902,9 +1893,9 @@
         <v>178.85094794227007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1940,9 +1931,9 @@
         <v>169.95093970135136</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1978,9 +1969,9 @@
         <v>162.1817529618975</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -2016,9 +2007,9 @@
         <v>158.06872494929303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2054,9 +2045,9 @@
         <v>153.26820134213469</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2092,9 +2083,9 @@
         <v>143.80745554958881</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2130,9 +2121,9 @@
         <v>162.87586244841955</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2168,9 +2159,9 @@
         <v>155.96636733875417</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2206,9 +2197,9 @@
         <v>143.32642749522807</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2244,9 +2235,9 @@
         <v>187.28195407460007</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2282,9 +2273,9 @@
         <v>183.81772726096625</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2320,9 +2311,9 @@
         <v>164.35073514491347</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>12</v>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2358,9 +2349,9 @@
         <v>156.57937499586157</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2396,9 +2387,9 @@
         <v>164.29544984103745</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -2434,9 +2425,9 @@
         <v>151.75959790377652</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>12</v>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2472,9 +2463,9 @@
         <v>176.15776158677488</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>12</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2510,9 +2501,9 @@
         <v>170.22774387212732</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>12</v>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2548,9 +2539,9 @@
         <v>161.30494150702884</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>14</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2586,9 +2577,9 @@
         <v>161.83711529027872</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>14</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2624,9 +2615,9 @@
         <v>161.45144020069057</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>14</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2662,9 +2653,9 @@
         <v>171.12414834972796</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>13</v>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2700,9 +2691,9 @@
         <v>156.09903086736028</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2738,9 +2729,9 @@
         <v>138.91671455916233</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>13</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>14</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2776,9 +2767,9 @@
         <v>142.86704933413273</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>14</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2814,9 +2805,9 @@
         <v>190.74638101774681</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>13</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>14</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -2852,9 +2843,9 @@
         <v>172.93097989639688</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>14</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -2890,9 +2881,9 @@
         <v>179.1442482747149</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -2928,9 +2919,9 @@
         <v>184.71421217065119</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>13</v>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>14</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -2966,9 +2957,9 @@
         <v>177.1628140525282</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>13</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>14</v>
       </c>
       <c r="B49">
         <v>5</v>
